--- a/xlsx/貨幣_intext.xlsx
+++ b/xlsx/貨幣_intext.xlsx
@@ -29,7 +29,7 @@
     <t>钱 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_貨幣政策_貨幣</t>
+    <t>体育运动_体育运动_纳粹德国_貨幣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%8C%A2_(%E9%A6%99%E6%B8%AF)</t>
